--- a/data/temp/taxonomicNames_UTaxonStand/accepted_species.xlsx
+++ b/data/temp/taxonomicNames_UTaxonStand/accepted_species.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F557"/>
+  <dimension ref="A1:G557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,32 +360,37 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AUTHOR</t>
+          <t>Author</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>GENUS</t>
+          <t>Genus</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ACCEPTED_ID</t>
+          <t>Rank</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>FAMILY</t>
+          <t>Accepted_id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Family</t>
         </is>
       </c>
     </row>
@@ -408,10 +413,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -436,10 +438,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -464,10 +463,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -492,10 +488,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -520,10 +513,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -548,10 +538,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -576,10 +563,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -604,10 +588,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -632,10 +613,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -660,10 +638,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -688,10 +663,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -716,10 +688,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -744,10 +713,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -772,10 +738,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -800,10 +763,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -828,10 +788,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -856,10 +813,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -884,10 +838,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -912,10 +863,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -940,10 +888,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -968,10 +913,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -996,10 +938,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1024,10 +963,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1052,10 +988,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1080,10 +1013,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1108,10 +1038,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1136,10 +1063,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1164,10 +1088,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1192,10 +1113,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1220,10 +1138,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1248,10 +1163,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1276,10 +1188,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1304,10 +1213,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1332,10 +1238,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1360,10 +1263,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1388,10 +1288,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1416,10 +1313,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1444,10 +1338,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1472,10 +1363,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1500,10 +1388,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1528,10 +1413,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1556,10 +1438,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1584,10 +1463,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1612,10 +1488,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1640,10 +1513,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1668,10 +1538,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1691,10 +1558,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1719,10 +1583,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1747,10 +1608,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1775,10 +1633,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1803,10 +1658,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1831,10 +1683,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1859,10 +1708,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1887,10 +1733,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1915,10 +1758,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1943,10 +1783,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1971,10 +1808,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -1999,10 +1833,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2027,10 +1858,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2055,10 +1883,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2083,10 +1908,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2106,10 +1928,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2134,10 +1953,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2162,10 +1978,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2190,10 +2003,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2218,10 +2028,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2246,10 +2053,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2274,10 +2078,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2297,10 +2098,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2325,10 +2123,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2353,10 +2148,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2381,10 +2173,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2409,10 +2198,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2437,10 +2223,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2465,10 +2248,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2493,10 +2273,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2521,10 +2298,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2549,10 +2323,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2577,10 +2348,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2605,10 +2373,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2633,10 +2398,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2661,10 +2423,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2689,10 +2448,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2717,10 +2473,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2745,10 +2498,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2773,10 +2523,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2801,10 +2548,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2829,10 +2573,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2857,10 +2598,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2885,10 +2623,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2913,10 +2648,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2941,10 +2673,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2969,10 +2698,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -2997,10 +2723,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3025,10 +2748,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3053,10 +2773,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3081,10 +2798,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3109,10 +2823,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3137,10 +2848,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3165,10 +2873,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3193,10 +2898,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3221,10 +2923,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3249,10 +2948,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3277,10 +2973,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3305,10 +2998,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3333,10 +3023,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3361,10 +3048,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3389,10 +3073,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3417,10 +3098,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3445,10 +3123,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3473,10 +3148,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3501,10 +3173,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3529,10 +3198,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3557,10 +3223,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3585,10 +3248,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3613,10 +3273,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3641,10 +3298,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3669,10 +3323,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3697,10 +3348,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3725,10 +3373,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3753,10 +3398,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3781,10 +3423,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3809,10 +3448,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3837,10 +3473,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3865,10 +3498,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3893,10 +3523,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3921,10 +3548,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3949,10 +3573,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -3977,10 +3598,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4005,10 +3623,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4033,10 +3648,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4061,10 +3673,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4089,10 +3698,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4117,10 +3723,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4145,10 +3748,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4173,10 +3773,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4201,10 +3798,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4229,10 +3823,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4257,10 +3848,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4285,10 +3873,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4313,10 +3898,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4341,10 +3923,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4369,10 +3948,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4397,10 +3973,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4425,10 +3998,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4453,10 +4023,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4481,10 +4048,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4509,10 +4073,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4537,10 +4098,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4565,10 +4123,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4593,10 +4148,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4621,10 +4173,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4649,10 +4198,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4677,10 +4223,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4705,10 +4248,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4733,10 +4273,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4761,10 +4298,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4789,10 +4323,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4817,10 +4348,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4845,10 +4373,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4873,10 +4398,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4901,10 +4423,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4929,10 +4448,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4957,10 +4473,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -4985,10 +4498,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5013,10 +4523,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5036,10 +4543,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5064,10 +4568,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5092,10 +4593,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5120,10 +4618,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5148,10 +4643,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5176,10 +4668,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5204,10 +4693,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5232,10 +4718,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5260,10 +4743,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5288,10 +4768,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5316,10 +4793,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5344,10 +4818,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5372,10 +4843,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5400,10 +4868,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5428,10 +4893,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5456,10 +4918,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5484,10 +4943,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5512,10 +4968,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5540,10 +4993,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5568,10 +5018,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5596,10 +5043,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5624,10 +5068,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5652,10 +5093,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5680,10 +5118,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5708,10 +5143,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5736,10 +5168,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5759,10 +5188,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5787,10 +5213,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5815,10 +5238,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5843,10 +5263,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5871,10 +5288,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5899,10 +5313,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5927,10 +5338,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5955,10 +5363,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -5983,10 +5388,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6011,10 +5413,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6039,10 +5438,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6067,10 +5463,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6095,10 +5488,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6123,10 +5513,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6151,10 +5538,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6179,10 +5563,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6207,10 +5588,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6235,10 +5613,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6263,10 +5638,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6291,10 +5663,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6319,10 +5688,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E214">
-        <v>0</v>
-      </c>
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6347,10 +5713,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="F215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6375,10 +5738,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-      <c r="F216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6403,10 +5763,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-      <c r="F217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6431,10 +5788,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6459,10 +5813,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6487,10 +5838,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-      <c r="F220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6515,10 +5863,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-      <c r="F221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6543,10 +5888,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E222">
-        <v>0</v>
-      </c>
-      <c r="F222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6571,10 +5913,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E223">
-        <v>0</v>
-      </c>
-      <c r="F223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6599,10 +5938,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E224">
-        <v>0</v>
-      </c>
-      <c r="F224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6627,10 +5963,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-      <c r="F225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6655,10 +5988,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-      <c r="F226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6683,10 +6013,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E227">
-        <v>0</v>
-      </c>
-      <c r="F227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6711,10 +6038,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-      <c r="F228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6739,10 +6063,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
-      <c r="F229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6767,10 +6088,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E230">
-        <v>0</v>
-      </c>
-      <c r="F230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6795,10 +6113,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6823,10 +6138,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-      <c r="F232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6851,10 +6163,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-      <c r="F233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6879,10 +6188,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-      <c r="F234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6907,10 +6213,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="F235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6930,10 +6233,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6958,10 +6258,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-      <c r="F237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -6986,10 +6283,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7014,10 +6308,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E239">
-        <v>0</v>
-      </c>
-      <c r="F239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7042,10 +6333,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E240">
-        <v>0</v>
-      </c>
-      <c r="F240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7070,10 +6358,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E241">
-        <v>0</v>
-      </c>
-      <c r="F241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7093,10 +6378,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E242">
-        <v>0</v>
-      </c>
-      <c r="F242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7121,10 +6403,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E243">
-        <v>0</v>
-      </c>
-      <c r="F243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7149,10 +6428,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E244">
-        <v>0</v>
-      </c>
-      <c r="F244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7177,10 +6453,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E245">
-        <v>0</v>
-      </c>
-      <c r="F245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7205,10 +6478,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E246">
-        <v>0</v>
-      </c>
-      <c r="F246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7233,10 +6503,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E247">
-        <v>0</v>
-      </c>
-      <c r="F247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7261,10 +6528,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="F248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7289,10 +6553,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E249">
-        <v>0</v>
-      </c>
-      <c r="F249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7312,10 +6573,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E250">
-        <v>0</v>
-      </c>
-      <c r="F250" t="inlineStr">
+      <c r="G250" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7340,10 +6598,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E251">
-        <v>0</v>
-      </c>
-      <c r="F251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7368,10 +6623,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E252">
-        <v>0</v>
-      </c>
-      <c r="F252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7396,10 +6648,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7424,10 +6673,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-      <c r="F254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7452,10 +6698,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E255">
-        <v>0</v>
-      </c>
-      <c r="F255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7480,10 +6723,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E256">
-        <v>0</v>
-      </c>
-      <c r="F256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7508,10 +6748,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E257">
-        <v>0</v>
-      </c>
-      <c r="F257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7536,10 +6773,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E258">
-        <v>0</v>
-      </c>
-      <c r="F258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7564,10 +6798,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-      <c r="F259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7592,10 +6823,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E260">
-        <v>0</v>
-      </c>
-      <c r="F260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7620,10 +6848,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E261">
-        <v>0</v>
-      </c>
-      <c r="F261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7648,10 +6873,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E262">
-        <v>0</v>
-      </c>
-      <c r="F262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7676,10 +6898,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E263">
-        <v>0</v>
-      </c>
-      <c r="F263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7704,10 +6923,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E264">
-        <v>0</v>
-      </c>
-      <c r="F264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7732,10 +6948,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E265">
-        <v>0</v>
-      </c>
-      <c r="F265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7760,10 +6973,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E266">
-        <v>0</v>
-      </c>
-      <c r="F266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7788,10 +6998,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E267">
-        <v>0</v>
-      </c>
-      <c r="F267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7816,10 +7023,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E268">
-        <v>0</v>
-      </c>
-      <c r="F268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7844,10 +7048,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E269">
-        <v>0</v>
-      </c>
-      <c r="F269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7872,10 +7073,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E270">
-        <v>0</v>
-      </c>
-      <c r="F270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7900,10 +7098,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E271">
-        <v>0</v>
-      </c>
-      <c r="F271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7928,10 +7123,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E272">
-        <v>0</v>
-      </c>
-      <c r="F272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7956,10 +7148,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -7984,10 +7173,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E274">
-        <v>0</v>
-      </c>
-      <c r="F274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8012,10 +7198,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="F275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8040,10 +7223,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8068,10 +7248,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8096,10 +7273,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8124,10 +7298,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8152,10 +7323,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8180,10 +7348,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8208,10 +7373,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8236,10 +7398,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8264,10 +7423,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8292,10 +7448,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8320,10 +7473,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8348,10 +7498,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-      <c r="F287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8376,10 +7523,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8404,10 +7548,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8432,10 +7573,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8460,10 +7598,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
-      <c r="F291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8488,10 +7623,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E292">
-        <v>0</v>
-      </c>
-      <c r="F292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8516,10 +7648,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-      <c r="F293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8544,10 +7673,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E294">
-        <v>0</v>
-      </c>
-      <c r="F294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8572,10 +7698,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E295">
-        <v>0</v>
-      </c>
-      <c r="F295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8600,10 +7723,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-      <c r="F296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8628,10 +7748,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8656,10 +7773,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-      <c r="F298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8684,10 +7798,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8712,10 +7823,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E300">
-        <v>0</v>
-      </c>
-      <c r="F300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8740,10 +7848,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E301">
-        <v>0</v>
-      </c>
-      <c r="F301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8768,10 +7873,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E302">
-        <v>0</v>
-      </c>
-      <c r="F302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8796,10 +7898,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E303">
-        <v>0</v>
-      </c>
-      <c r="F303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8824,10 +7923,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E304">
-        <v>0</v>
-      </c>
-      <c r="F304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8852,10 +7948,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E305">
-        <v>0</v>
-      </c>
-      <c r="F305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8880,10 +7973,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E306">
-        <v>0</v>
-      </c>
-      <c r="F306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8908,10 +7998,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E307">
-        <v>0</v>
-      </c>
-      <c r="F307" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8936,10 +8023,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E308">
-        <v>0</v>
-      </c>
-      <c r="F308" t="inlineStr">
+      <c r="G308" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8964,10 +8048,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E309">
-        <v>0</v>
-      </c>
-      <c r="F309" t="inlineStr">
+      <c r="G309" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -8992,10 +8073,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E310">
-        <v>0</v>
-      </c>
-      <c r="F310" t="inlineStr">
+      <c r="G310" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9020,10 +8098,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E311">
-        <v>0</v>
-      </c>
-      <c r="F311" t="inlineStr">
+      <c r="G311" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9048,10 +8123,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E312">
-        <v>0</v>
-      </c>
-      <c r="F312" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9076,10 +8148,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E313">
-        <v>0</v>
-      </c>
-      <c r="F313" t="inlineStr">
+      <c r="G313" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9104,10 +8173,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E314">
-        <v>0</v>
-      </c>
-      <c r="F314" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9132,10 +8198,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E315">
-        <v>0</v>
-      </c>
-      <c r="F315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9160,10 +8223,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E316">
-        <v>0</v>
-      </c>
-      <c r="F316" t="inlineStr">
+      <c r="G316" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9188,10 +8248,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E317">
-        <v>0</v>
-      </c>
-      <c r="F317" t="inlineStr">
+      <c r="G317" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9216,10 +8273,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E318">
-        <v>0</v>
-      </c>
-      <c r="F318" t="inlineStr">
+      <c r="G318" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9244,10 +8298,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E319">
-        <v>0</v>
-      </c>
-      <c r="F319" t="inlineStr">
+      <c r="G319" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9272,10 +8323,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E320">
-        <v>0</v>
-      </c>
-      <c r="F320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9300,10 +8348,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E321">
-        <v>0</v>
-      </c>
-      <c r="F321" t="inlineStr">
+      <c r="G321" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9328,10 +8373,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E322">
-        <v>0</v>
-      </c>
-      <c r="F322" t="inlineStr">
+      <c r="G322" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9356,10 +8398,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E323">
-        <v>0</v>
-      </c>
-      <c r="F323" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9384,10 +8423,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E324">
-        <v>0</v>
-      </c>
-      <c r="F324" t="inlineStr">
+      <c r="G324" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9412,10 +8448,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E325">
-        <v>0</v>
-      </c>
-      <c r="F325" t="inlineStr">
+      <c r="G325" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9440,10 +8473,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E326">
-        <v>0</v>
-      </c>
-      <c r="F326" t="inlineStr">
+      <c r="G326" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9468,10 +8498,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E327">
-        <v>0</v>
-      </c>
-      <c r="F327" t="inlineStr">
+      <c r="G327" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9496,10 +8523,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E328">
-        <v>0</v>
-      </c>
-      <c r="F328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9524,10 +8548,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E329">
-        <v>0</v>
-      </c>
-      <c r="F329" t="inlineStr">
+      <c r="G329" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9552,10 +8573,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E330">
-        <v>0</v>
-      </c>
-      <c r="F330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9580,10 +8598,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E331">
-        <v>0</v>
-      </c>
-      <c r="F331" t="inlineStr">
+      <c r="G331" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9608,10 +8623,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E332">
-        <v>0</v>
-      </c>
-      <c r="F332" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9636,10 +8648,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E333">
-        <v>0</v>
-      </c>
-      <c r="F333" t="inlineStr">
+      <c r="G333" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9664,10 +8673,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E334">
-        <v>0</v>
-      </c>
-      <c r="F334" t="inlineStr">
+      <c r="G334" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9692,10 +8698,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E335">
-        <v>0</v>
-      </c>
-      <c r="F335" t="inlineStr">
+      <c r="G335" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9720,10 +8723,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E336">
-        <v>0</v>
-      </c>
-      <c r="F336" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9748,10 +8748,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E337">
-        <v>0</v>
-      </c>
-      <c r="F337" t="inlineStr">
+      <c r="G337" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9776,10 +8773,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E338">
-        <v>0</v>
-      </c>
-      <c r="F338" t="inlineStr">
+      <c r="G338" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9804,10 +8798,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E339">
-        <v>0</v>
-      </c>
-      <c r="F339" t="inlineStr">
+      <c r="G339" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9832,10 +8823,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E340">
-        <v>0</v>
-      </c>
-      <c r="F340" t="inlineStr">
+      <c r="G340" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9860,10 +8848,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E341">
-        <v>0</v>
-      </c>
-      <c r="F341" t="inlineStr">
+      <c r="G341" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9888,10 +8873,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E342">
-        <v>0</v>
-      </c>
-      <c r="F342" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9916,10 +8898,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E343">
-        <v>0</v>
-      </c>
-      <c r="F343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9944,10 +8923,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E344">
-        <v>0</v>
-      </c>
-      <c r="F344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -9972,10 +8948,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E345">
-        <v>0</v>
-      </c>
-      <c r="F345" t="inlineStr">
+      <c r="G345" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10000,10 +8973,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E346">
-        <v>0</v>
-      </c>
-      <c r="F346" t="inlineStr">
+      <c r="G346" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10028,10 +8998,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E347">
-        <v>0</v>
-      </c>
-      <c r="F347" t="inlineStr">
+      <c r="G347" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10056,10 +9023,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E348">
-        <v>0</v>
-      </c>
-      <c r="F348" t="inlineStr">
+      <c r="G348" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10084,10 +9048,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E349">
-        <v>0</v>
-      </c>
-      <c r="F349" t="inlineStr">
+      <c r="G349" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10112,10 +9073,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E350">
-        <v>0</v>
-      </c>
-      <c r="F350" t="inlineStr">
+      <c r="G350" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10140,10 +9098,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E351">
-        <v>0</v>
-      </c>
-      <c r="F351" t="inlineStr">
+      <c r="G351" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10168,10 +9123,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E352">
-        <v>0</v>
-      </c>
-      <c r="F352" t="inlineStr">
+      <c r="G352" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10196,10 +9148,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E353">
-        <v>0</v>
-      </c>
-      <c r="F353" t="inlineStr">
+      <c r="G353" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10224,10 +9173,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E354">
-        <v>0</v>
-      </c>
-      <c r="F354" t="inlineStr">
+      <c r="G354" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10252,10 +9198,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E355">
-        <v>0</v>
-      </c>
-      <c r="F355" t="inlineStr">
+      <c r="G355" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10280,10 +9223,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E356">
-        <v>0</v>
-      </c>
-      <c r="F356" t="inlineStr">
+      <c r="G356" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10308,10 +9248,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E357">
-        <v>0</v>
-      </c>
-      <c r="F357" t="inlineStr">
+      <c r="G357" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10336,10 +9273,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E358">
-        <v>0</v>
-      </c>
-      <c r="F358" t="inlineStr">
+      <c r="G358" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10364,10 +9298,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E359">
-        <v>0</v>
-      </c>
-      <c r="F359" t="inlineStr">
+      <c r="G359" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10392,10 +9323,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E360">
-        <v>0</v>
-      </c>
-      <c r="F360" t="inlineStr">
+      <c r="G360" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10420,10 +9348,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E361">
-        <v>0</v>
-      </c>
-      <c r="F361" t="inlineStr">
+      <c r="G361" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10448,10 +9373,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E362">
-        <v>0</v>
-      </c>
-      <c r="F362" t="inlineStr">
+      <c r="G362" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10476,10 +9398,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E363">
-        <v>0</v>
-      </c>
-      <c r="F363" t="inlineStr">
+      <c r="G363" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10504,10 +9423,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E364">
-        <v>0</v>
-      </c>
-      <c r="F364" t="inlineStr">
+      <c r="G364" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10532,10 +9448,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E365">
-        <v>0</v>
-      </c>
-      <c r="F365" t="inlineStr">
+      <c r="G365" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10560,10 +9473,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E366">
-        <v>0</v>
-      </c>
-      <c r="F366" t="inlineStr">
+      <c r="G366" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10588,10 +9498,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E367">
-        <v>0</v>
-      </c>
-      <c r="F367" t="inlineStr">
+      <c r="G367" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10616,10 +9523,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E368">
-        <v>0</v>
-      </c>
-      <c r="F368" t="inlineStr">
+      <c r="G368" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10644,10 +9548,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E369">
-        <v>0</v>
-      </c>
-      <c r="F369" t="inlineStr">
+      <c r="G369" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10672,10 +9573,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E370">
-        <v>0</v>
-      </c>
-      <c r="F370" t="inlineStr">
+      <c r="G370" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10700,10 +9598,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E371">
-        <v>0</v>
-      </c>
-      <c r="F371" t="inlineStr">
+      <c r="G371" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10728,10 +9623,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E372">
-        <v>0</v>
-      </c>
-      <c r="F372" t="inlineStr">
+      <c r="G372" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10756,10 +9648,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E373">
-        <v>0</v>
-      </c>
-      <c r="F373" t="inlineStr">
+      <c r="G373" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10784,10 +9673,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E374">
-        <v>0</v>
-      </c>
-      <c r="F374" t="inlineStr">
+      <c r="G374" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10812,10 +9698,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E375">
-        <v>0</v>
-      </c>
-      <c r="F375" t="inlineStr">
+      <c r="G375" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10840,10 +9723,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E376">
-        <v>0</v>
-      </c>
-      <c r="F376" t="inlineStr">
+      <c r="G376" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10868,10 +9748,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E377">
-        <v>0</v>
-      </c>
-      <c r="F377" t="inlineStr">
+      <c r="G377" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10896,10 +9773,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E378">
-        <v>0</v>
-      </c>
-      <c r="F378" t="inlineStr">
+      <c r="G378" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10919,10 +9793,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E379">
-        <v>0</v>
-      </c>
-      <c r="F379" t="inlineStr">
+      <c r="G379" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10947,10 +9818,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E380">
-        <v>0</v>
-      </c>
-      <c r="F380" t="inlineStr">
+      <c r="G380" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -10975,10 +9843,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E381">
-        <v>0</v>
-      </c>
-      <c r="F381" t="inlineStr">
+      <c r="G381" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11003,10 +9868,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E382">
-        <v>0</v>
-      </c>
-      <c r="F382" t="inlineStr">
+      <c r="G382" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11031,10 +9893,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E383">
-        <v>0</v>
-      </c>
-      <c r="F383" t="inlineStr">
+      <c r="G383" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11059,10 +9918,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E384">
-        <v>0</v>
-      </c>
-      <c r="F384" t="inlineStr">
+      <c r="G384" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11087,10 +9943,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E385">
-        <v>0</v>
-      </c>
-      <c r="F385" t="inlineStr">
+      <c r="G385" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11115,10 +9968,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E386">
-        <v>0</v>
-      </c>
-      <c r="F386" t="inlineStr">
+      <c r="G386" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11143,10 +9993,7 @@
           <t>Roldana</t>
         </is>
       </c>
-      <c r="E387">
-        <v>0</v>
-      </c>
-      <c r="F387" t="inlineStr">
+      <c r="G387" t="inlineStr">
         <is>
           <t>Asteraceae</t>
         </is>
@@ -11171,10 +10018,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E388">
-        <v>0</v>
-      </c>
-      <c r="F388" t="inlineStr">
+      <c r="G388" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11199,10 +10043,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E389">
-        <v>0</v>
-      </c>
-      <c r="F389" t="inlineStr">
+      <c r="G389" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11227,10 +10068,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E390">
-        <v>0</v>
-      </c>
-      <c r="F390" t="inlineStr">
+      <c r="G390" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11255,10 +10093,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E391">
-        <v>0</v>
-      </c>
-      <c r="F391" t="inlineStr">
+      <c r="G391" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11283,10 +10118,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E392">
-        <v>0</v>
-      </c>
-      <c r="F392" t="inlineStr">
+      <c r="G392" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11311,10 +10143,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E393">
-        <v>0</v>
-      </c>
-      <c r="F393" t="inlineStr">
+      <c r="G393" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11339,10 +10168,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E394">
-        <v>0</v>
-      </c>
-      <c r="F394" t="inlineStr">
+      <c r="G394" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11367,10 +10193,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E395">
-        <v>0</v>
-      </c>
-      <c r="F395" t="inlineStr">
+      <c r="G395" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11395,10 +10218,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E396">
-        <v>0</v>
-      </c>
-      <c r="F396" t="inlineStr">
+      <c r="G396" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11423,10 +10243,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E397">
-        <v>0</v>
-      </c>
-      <c r="F397" t="inlineStr">
+      <c r="G397" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11451,10 +10268,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E398">
-        <v>0</v>
-      </c>
-      <c r="F398" t="inlineStr">
+      <c r="G398" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11479,10 +10293,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E399">
-        <v>0</v>
-      </c>
-      <c r="F399" t="inlineStr">
+      <c r="G399" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11507,10 +10318,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E400">
-        <v>0</v>
-      </c>
-      <c r="F400" t="inlineStr">
+      <c r="G400" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11530,10 +10338,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E401">
-        <v>0</v>
-      </c>
-      <c r="F401" t="inlineStr">
+      <c r="G401" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11558,10 +10363,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E402">
-        <v>0</v>
-      </c>
-      <c r="F402" t="inlineStr">
+      <c r="G402" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11586,10 +10388,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E403">
-        <v>0</v>
-      </c>
-      <c r="F403" t="inlineStr">
+      <c r="G403" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11614,10 +10413,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E404">
-        <v>0</v>
-      </c>
-      <c r="F404" t="inlineStr">
+      <c r="G404" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11642,10 +10438,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E405">
-        <v>0</v>
-      </c>
-      <c r="F405" t="inlineStr">
+      <c r="G405" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11670,10 +10463,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E406">
-        <v>0</v>
-      </c>
-      <c r="F406" t="inlineStr">
+      <c r="G406" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11698,10 +10488,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E407">
-        <v>0</v>
-      </c>
-      <c r="F407" t="inlineStr">
+      <c r="G407" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11726,10 +10513,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E408">
-        <v>0</v>
-      </c>
-      <c r="F408" t="inlineStr">
+      <c r="G408" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11749,10 +10533,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E409">
-        <v>0</v>
-      </c>
-      <c r="F409" t="inlineStr">
+      <c r="G409" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11777,10 +10558,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E410">
-        <v>0</v>
-      </c>
-      <c r="F410" t="inlineStr">
+      <c r="G410" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11805,10 +10583,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E411">
-        <v>0</v>
-      </c>
-      <c r="F411" t="inlineStr">
+      <c r="G411" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11833,10 +10608,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E412">
-        <v>0</v>
-      </c>
-      <c r="F412" t="inlineStr">
+      <c r="G412" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11861,10 +10633,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E413">
-        <v>0</v>
-      </c>
-      <c r="F413" t="inlineStr">
+      <c r="G413" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11889,10 +10658,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E414">
-        <v>0</v>
-      </c>
-      <c r="F414" t="inlineStr">
+      <c r="G414" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11917,10 +10683,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E415">
-        <v>0</v>
-      </c>
-      <c r="F415" t="inlineStr">
+      <c r="G415" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11945,10 +10708,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E416">
-        <v>0</v>
-      </c>
-      <c r="F416" t="inlineStr">
+      <c r="G416" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -11973,10 +10733,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E417">
-        <v>0</v>
-      </c>
-      <c r="F417" t="inlineStr">
+      <c r="G417" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12001,10 +10758,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E418">
-        <v>0</v>
-      </c>
-      <c r="F418" t="inlineStr">
+      <c r="G418" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12029,10 +10783,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E419">
-        <v>0</v>
-      </c>
-      <c r="F419" t="inlineStr">
+      <c r="G419" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12057,10 +10808,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E420">
-        <v>0</v>
-      </c>
-      <c r="F420" t="inlineStr">
+      <c r="G420" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12085,10 +10833,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E421">
-        <v>0</v>
-      </c>
-      <c r="F421" t="inlineStr">
+      <c r="G421" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12113,10 +10858,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E422">
-        <v>0</v>
-      </c>
-      <c r="F422" t="inlineStr">
+      <c r="G422" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12141,10 +10883,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E423">
-        <v>0</v>
-      </c>
-      <c r="F423" t="inlineStr">
+      <c r="G423" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12169,10 +10908,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E424">
-        <v>0</v>
-      </c>
-      <c r="F424" t="inlineStr">
+      <c r="G424" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12197,10 +10933,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E425">
-        <v>0</v>
-      </c>
-      <c r="F425" t="inlineStr">
+      <c r="G425" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12225,10 +10958,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E426">
-        <v>0</v>
-      </c>
-      <c r="F426" t="inlineStr">
+      <c r="G426" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12253,10 +10983,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E427">
-        <v>0</v>
-      </c>
-      <c r="F427" t="inlineStr">
+      <c r="G427" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12281,10 +11008,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E428">
-        <v>0</v>
-      </c>
-      <c r="F428" t="inlineStr">
+      <c r="G428" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12309,10 +11033,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E429">
-        <v>0</v>
-      </c>
-      <c r="F429" t="inlineStr">
+      <c r="G429" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12337,10 +11058,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E430">
-        <v>0</v>
-      </c>
-      <c r="F430" t="inlineStr">
+      <c r="G430" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12365,10 +11083,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E431">
-        <v>0</v>
-      </c>
-      <c r="F431" t="inlineStr">
+      <c r="G431" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12388,10 +11103,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E432">
-        <v>0</v>
-      </c>
-      <c r="F432" t="inlineStr">
+      <c r="G432" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12416,10 +11128,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E433">
-        <v>0</v>
-      </c>
-      <c r="F433" t="inlineStr">
+      <c r="G433" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12444,10 +11153,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E434">
-        <v>0</v>
-      </c>
-      <c r="F434" t="inlineStr">
+      <c r="G434" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12472,10 +11178,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E435">
-        <v>0</v>
-      </c>
-      <c r="F435" t="inlineStr">
+      <c r="G435" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12500,10 +11203,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E436">
-        <v>0</v>
-      </c>
-      <c r="F436" t="inlineStr">
+      <c r="G436" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12528,10 +11228,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E437">
-        <v>0</v>
-      </c>
-      <c r="F437" t="inlineStr">
+      <c r="G437" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12551,10 +11248,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E438">
-        <v>0</v>
-      </c>
-      <c r="F438" t="inlineStr">
+      <c r="G438" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12579,10 +11273,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E439">
-        <v>0</v>
-      </c>
-      <c r="F439" t="inlineStr">
+      <c r="G439" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12607,10 +11298,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E440">
-        <v>0</v>
-      </c>
-      <c r="F440" t="inlineStr">
+      <c r="G440" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12635,10 +11323,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E441">
-        <v>0</v>
-      </c>
-      <c r="F441" t="inlineStr">
+      <c r="G441" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12663,10 +11348,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E442">
-        <v>0</v>
-      </c>
-      <c r="F442" t="inlineStr">
+      <c r="G442" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12691,10 +11373,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E443">
-        <v>0</v>
-      </c>
-      <c r="F443" t="inlineStr">
+      <c r="G443" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12719,10 +11398,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E444">
-        <v>0</v>
-      </c>
-      <c r="F444" t="inlineStr">
+      <c r="G444" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12747,10 +11423,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E445">
-        <v>0</v>
-      </c>
-      <c r="F445" t="inlineStr">
+      <c r="G445" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12775,10 +11448,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E446">
-        <v>0</v>
-      </c>
-      <c r="F446" t="inlineStr">
+      <c r="G446" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12803,10 +11473,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E447">
-        <v>0</v>
-      </c>
-      <c r="F447" t="inlineStr">
+      <c r="G447" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12831,10 +11498,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E448">
-        <v>0</v>
-      </c>
-      <c r="F448" t="inlineStr">
+      <c r="G448" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12859,10 +11523,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E449">
-        <v>0</v>
-      </c>
-      <c r="F449" t="inlineStr">
+      <c r="G449" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12887,10 +11548,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E450">
-        <v>0</v>
-      </c>
-      <c r="F450" t="inlineStr">
+      <c r="G450" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12915,10 +11573,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E451">
-        <v>0</v>
-      </c>
-      <c r="F451" t="inlineStr">
+      <c r="G451" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12943,10 +11598,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E452">
-        <v>0</v>
-      </c>
-      <c r="F452" t="inlineStr">
+      <c r="G452" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12971,10 +11623,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E453">
-        <v>0</v>
-      </c>
-      <c r="F453" t="inlineStr">
+      <c r="G453" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -12999,10 +11648,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E454">
-        <v>0</v>
-      </c>
-      <c r="F454" t="inlineStr">
+      <c r="G454" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13022,10 +11668,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E455">
-        <v>0</v>
-      </c>
-      <c r="F455" t="inlineStr">
+      <c r="G455" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13050,10 +11693,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E456">
-        <v>0</v>
-      </c>
-      <c r="F456" t="inlineStr">
+      <c r="G456" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13078,10 +11718,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E457">
-        <v>0</v>
-      </c>
-      <c r="F457" t="inlineStr">
+      <c r="G457" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13106,10 +11743,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E458">
-        <v>0</v>
-      </c>
-      <c r="F458" t="inlineStr">
+      <c r="G458" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13134,10 +11768,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E459">
-        <v>0</v>
-      </c>
-      <c r="F459" t="inlineStr">
+      <c r="G459" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13162,10 +11793,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E460">
-        <v>0</v>
-      </c>
-      <c r="F460" t="inlineStr">
+      <c r="G460" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13190,10 +11818,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E461">
-        <v>0</v>
-      </c>
-      <c r="F461" t="inlineStr">
+      <c r="G461" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13218,10 +11843,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E462">
-        <v>0</v>
-      </c>
-      <c r="F462" t="inlineStr">
+      <c r="G462" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13246,10 +11868,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E463">
-        <v>0</v>
-      </c>
-      <c r="F463" t="inlineStr">
+      <c r="G463" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13274,10 +11893,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E464">
-        <v>0</v>
-      </c>
-      <c r="F464" t="inlineStr">
+      <c r="G464" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13302,10 +11918,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E465">
-        <v>0</v>
-      </c>
-      <c r="F465" t="inlineStr">
+      <c r="G465" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13330,10 +11943,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E466">
-        <v>0</v>
-      </c>
-      <c r="F466" t="inlineStr">
+      <c r="G466" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13358,10 +11968,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E467">
-        <v>0</v>
-      </c>
-      <c r="F467" t="inlineStr">
+      <c r="G467" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13386,10 +11993,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E468">
-        <v>0</v>
-      </c>
-      <c r="F468" t="inlineStr">
+      <c r="G468" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13414,10 +12018,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E469">
-        <v>0</v>
-      </c>
-      <c r="F469" t="inlineStr">
+      <c r="G469" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13442,10 +12043,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E470">
-        <v>0</v>
-      </c>
-      <c r="F470" t="inlineStr">
+      <c r="G470" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13470,10 +12068,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E471">
-        <v>0</v>
-      </c>
-      <c r="F471" t="inlineStr">
+      <c r="G471" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13498,10 +12093,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E472">
-        <v>0</v>
-      </c>
-      <c r="F472" t="inlineStr">
+      <c r="G472" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13526,10 +12118,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E473">
-        <v>0</v>
-      </c>
-      <c r="F473" t="inlineStr">
+      <c r="G473" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13554,10 +12143,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E474">
-        <v>0</v>
-      </c>
-      <c r="F474" t="inlineStr">
+      <c r="G474" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13582,10 +12168,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E475">
-        <v>0</v>
-      </c>
-      <c r="F475" t="inlineStr">
+      <c r="G475" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13610,10 +12193,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E476">
-        <v>0</v>
-      </c>
-      <c r="F476" t="inlineStr">
+      <c r="G476" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13638,10 +12218,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E477">
-        <v>0</v>
-      </c>
-      <c r="F477" t="inlineStr">
+      <c r="G477" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13666,10 +12243,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E478">
-        <v>0</v>
-      </c>
-      <c r="F478" t="inlineStr">
+      <c r="G478" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13694,10 +12268,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E479">
-        <v>0</v>
-      </c>
-      <c r="F479" t="inlineStr">
+      <c r="G479" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13722,10 +12293,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E480">
-        <v>0</v>
-      </c>
-      <c r="F480" t="inlineStr">
+      <c r="G480" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13750,10 +12318,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E481">
-        <v>0</v>
-      </c>
-      <c r="F481" t="inlineStr">
+      <c r="G481" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13778,10 +12343,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E482">
-        <v>0</v>
-      </c>
-      <c r="F482" t="inlineStr">
+      <c r="G482" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13806,10 +12368,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E483">
-        <v>0</v>
-      </c>
-      <c r="F483" t="inlineStr">
+      <c r="G483" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13834,10 +12393,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E484">
-        <v>0</v>
-      </c>
-      <c r="F484" t="inlineStr">
+      <c r="G484" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13862,10 +12418,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E485">
-        <v>0</v>
-      </c>
-      <c r="F485" t="inlineStr">
+      <c r="G485" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13890,10 +12443,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E486">
-        <v>0</v>
-      </c>
-      <c r="F486" t="inlineStr">
+      <c r="G486" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13918,10 +12468,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E487">
-        <v>0</v>
-      </c>
-      <c r="F487" t="inlineStr">
+      <c r="G487" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13946,10 +12493,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E488">
-        <v>0</v>
-      </c>
-      <c r="F488" t="inlineStr">
+      <c r="G488" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -13974,10 +12518,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E489">
-        <v>0</v>
-      </c>
-      <c r="F489" t="inlineStr">
+      <c r="G489" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14002,10 +12543,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E490">
-        <v>0</v>
-      </c>
-      <c r="F490" t="inlineStr">
+      <c r="G490" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14030,10 +12568,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E491">
-        <v>0</v>
-      </c>
-      <c r="F491" t="inlineStr">
+      <c r="G491" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14058,10 +12593,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E492">
-        <v>0</v>
-      </c>
-      <c r="F492" t="inlineStr">
+      <c r="G492" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14086,10 +12618,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E493">
-        <v>0</v>
-      </c>
-      <c r="F493" t="inlineStr">
+      <c r="G493" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14114,10 +12643,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E494">
-        <v>0</v>
-      </c>
-      <c r="F494" t="inlineStr">
+      <c r="G494" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14142,10 +12668,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E495">
-        <v>0</v>
-      </c>
-      <c r="F495" t="inlineStr">
+      <c r="G495" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14170,10 +12693,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E496">
-        <v>0</v>
-      </c>
-      <c r="F496" t="inlineStr">
+      <c r="G496" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14198,10 +12718,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E497">
-        <v>0</v>
-      </c>
-      <c r="F497" t="inlineStr">
+      <c r="G497" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14226,10 +12743,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E498">
-        <v>0</v>
-      </c>
-      <c r="F498" t="inlineStr">
+      <c r="G498" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14254,10 +12768,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E499">
-        <v>0</v>
-      </c>
-      <c r="F499" t="inlineStr">
+      <c r="G499" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14282,10 +12793,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E500">
-        <v>0</v>
-      </c>
-      <c r="F500" t="inlineStr">
+      <c r="G500" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14310,10 +12818,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E501">
-        <v>0</v>
-      </c>
-      <c r="F501" t="inlineStr">
+      <c r="G501" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14338,10 +12843,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E502">
-        <v>0</v>
-      </c>
-      <c r="F502" t="inlineStr">
+      <c r="G502" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14366,10 +12868,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E503">
-        <v>0</v>
-      </c>
-      <c r="F503" t="inlineStr">
+      <c r="G503" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14394,10 +12893,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E504">
-        <v>0</v>
-      </c>
-      <c r="F504" t="inlineStr">
+      <c r="G504" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14422,10 +12918,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E505">
-        <v>0</v>
-      </c>
-      <c r="F505" t="inlineStr">
+      <c r="G505" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14450,10 +12943,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E506">
-        <v>0</v>
-      </c>
-      <c r="F506" t="inlineStr">
+      <c r="G506" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14478,10 +12968,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E507">
-        <v>0</v>
-      </c>
-      <c r="F507" t="inlineStr">
+      <c r="G507" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14506,10 +12993,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E508">
-        <v>0</v>
-      </c>
-      <c r="F508" t="inlineStr">
+      <c r="G508" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14534,10 +13018,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E509">
-        <v>0</v>
-      </c>
-      <c r="F509" t="inlineStr">
+      <c r="G509" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14562,10 +13043,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E510">
-        <v>0</v>
-      </c>
-      <c r="F510" t="inlineStr">
+      <c r="G510" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14590,10 +13068,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E511">
-        <v>0</v>
-      </c>
-      <c r="F511" t="inlineStr">
+      <c r="G511" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14618,10 +13093,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E512">
-        <v>0</v>
-      </c>
-      <c r="F512" t="inlineStr">
+      <c r="G512" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14646,10 +13118,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E513">
-        <v>0</v>
-      </c>
-      <c r="F513" t="inlineStr">
+      <c r="G513" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14674,10 +13143,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E514">
-        <v>0</v>
-      </c>
-      <c r="F514" t="inlineStr">
+      <c r="G514" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14702,10 +13168,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E515">
-        <v>0</v>
-      </c>
-      <c r="F515" t="inlineStr">
+      <c r="G515" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14730,10 +13193,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E516">
-        <v>0</v>
-      </c>
-      <c r="F516" t="inlineStr">
+      <c r="G516" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14758,10 +13218,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E517">
-        <v>0</v>
-      </c>
-      <c r="F517" t="inlineStr">
+      <c r="G517" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14786,10 +13243,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E518">
-        <v>0</v>
-      </c>
-      <c r="F518" t="inlineStr">
+      <c r="G518" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14814,10 +13268,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E519">
-        <v>0</v>
-      </c>
-      <c r="F519" t="inlineStr">
+      <c r="G519" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14842,10 +13293,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E520">
-        <v>0</v>
-      </c>
-      <c r="F520" t="inlineStr">
+      <c r="G520" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14870,10 +13318,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E521">
-        <v>0</v>
-      </c>
-      <c r="F521" t="inlineStr">
+      <c r="G521" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14898,10 +13343,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E522">
-        <v>0</v>
-      </c>
-      <c r="F522" t="inlineStr">
+      <c r="G522" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14926,10 +13368,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E523">
-        <v>0</v>
-      </c>
-      <c r="F523" t="inlineStr">
+      <c r="G523" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14954,10 +13393,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E524">
-        <v>0</v>
-      </c>
-      <c r="F524" t="inlineStr">
+      <c r="G524" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -14982,10 +13418,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E525">
-        <v>0</v>
-      </c>
-      <c r="F525" t="inlineStr">
+      <c r="G525" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15005,10 +13438,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E526">
-        <v>0</v>
-      </c>
-      <c r="F526" t="inlineStr">
+      <c r="G526" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15033,10 +13463,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E527">
-        <v>0</v>
-      </c>
-      <c r="F527" t="inlineStr">
+      <c r="G527" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15061,10 +13488,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E528">
-        <v>0</v>
-      </c>
-      <c r="F528" t="inlineStr">
+      <c r="G528" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15089,10 +13513,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E529">
-        <v>0</v>
-      </c>
-      <c r="F529" t="inlineStr">
+      <c r="G529" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15117,10 +13538,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E530">
-        <v>0</v>
-      </c>
-      <c r="F530" t="inlineStr">
+      <c r="G530" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15145,10 +13563,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E531">
-        <v>0</v>
-      </c>
-      <c r="F531" t="inlineStr">
+      <c r="G531" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15173,10 +13588,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E532">
-        <v>0</v>
-      </c>
-      <c r="F532" t="inlineStr">
+      <c r="G532" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15201,10 +13613,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E533">
-        <v>0</v>
-      </c>
-      <c r="F533" t="inlineStr">
+      <c r="G533" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15229,10 +13638,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E534">
-        <v>0</v>
-      </c>
-      <c r="F534" t="inlineStr">
+      <c r="G534" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15257,10 +13663,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E535">
-        <v>0</v>
-      </c>
-      <c r="F535" t="inlineStr">
+      <c r="G535" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15285,10 +13688,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E536">
-        <v>0</v>
-      </c>
-      <c r="F536" t="inlineStr">
+      <c r="G536" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15313,10 +13713,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E537">
-        <v>0</v>
-      </c>
-      <c r="F537" t="inlineStr">
+      <c r="G537" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15341,10 +13738,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E538">
-        <v>0</v>
-      </c>
-      <c r="F538" t="inlineStr">
+      <c r="G538" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15369,10 +13763,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E539">
-        <v>0</v>
-      </c>
-      <c r="F539" t="inlineStr">
+      <c r="G539" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15397,10 +13788,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E540">
-        <v>0</v>
-      </c>
-      <c r="F540" t="inlineStr">
+      <c r="G540" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15425,10 +13813,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E541">
-        <v>0</v>
-      </c>
-      <c r="F541" t="inlineStr">
+      <c r="G541" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15453,10 +13838,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E542">
-        <v>0</v>
-      </c>
-      <c r="F542" t="inlineStr">
+      <c r="G542" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15481,10 +13863,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E543">
-        <v>0</v>
-      </c>
-      <c r="F543" t="inlineStr">
+      <c r="G543" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15509,10 +13888,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E544">
-        <v>0</v>
-      </c>
-      <c r="F544" t="inlineStr">
+      <c r="G544" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15537,10 +13913,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E545">
-        <v>0</v>
-      </c>
-      <c r="F545" t="inlineStr">
+      <c r="G545" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15565,10 +13938,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E546">
-        <v>0</v>
-      </c>
-      <c r="F546" t="inlineStr">
+      <c r="G546" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15593,10 +13963,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E547">
-        <v>0</v>
-      </c>
-      <c r="F547" t="inlineStr">
+      <c r="G547" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15621,10 +13988,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E548">
-        <v>0</v>
-      </c>
-      <c r="F548" t="inlineStr">
+      <c r="G548" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15649,10 +14013,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E549">
-        <v>0</v>
-      </c>
-      <c r="F549" t="inlineStr">
+      <c r="G549" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15677,10 +14038,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E550">
-        <v>0</v>
-      </c>
-      <c r="F550" t="inlineStr">
+      <c r="G550" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15705,10 +14063,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E551">
-        <v>0</v>
-      </c>
-      <c r="F551" t="inlineStr">
+      <c r="G551" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15733,10 +14088,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E552">
-        <v>0</v>
-      </c>
-      <c r="F552" t="inlineStr">
+      <c r="G552" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15761,10 +14113,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E553">
-        <v>0</v>
-      </c>
-      <c r="F553" t="inlineStr">
+      <c r="G553" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15789,10 +14138,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E554">
-        <v>0</v>
-      </c>
-      <c r="F554" t="inlineStr">
+      <c r="G554" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15817,10 +14163,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E555">
-        <v>0</v>
-      </c>
-      <c r="F555" t="inlineStr">
+      <c r="G555" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15845,10 +14188,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E556">
-        <v>0</v>
-      </c>
-      <c r="F556" t="inlineStr">
+      <c r="G556" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>
@@ -15873,10 +14213,7 @@
           <t>Quercus</t>
         </is>
       </c>
-      <c r="E557">
-        <v>0</v>
-      </c>
-      <c r="F557" t="inlineStr">
+      <c r="G557" t="inlineStr">
         <is>
           <t>Fagaceae</t>
         </is>

--- a/data/temp/taxonomicNames_UTaxonStand/accepted_species.xlsx
+++ b/data/temp/taxonomicNames_UTaxonStand/accepted_species.xlsx
@@ -390,7 +390,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quercus cualensis</t>
+          <t>Quercus cualensis L.M.González</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quercus iltisii</t>
+          <t>Quercus iltisii L.M.González</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -426,7 +426,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quercus tuitensis</t>
+          <t>Quercus tuitensis L.M.González</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quercus mexicana</t>
+          <t>Quercus mexicana f. confertifolia (Bonpl.) Trel.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quercus alamosensis</t>
+          <t>Quercus alamosensis Trel.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Quercus ambigua</t>
+          <t>Quercus ambigua Bonpl.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Quercus bonplandiana</t>
+          <t>Quercus bonplandiana Sweet</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quercus stipularis</t>
+          <t>Quercus stipularis Humb. &amp; Bonpl.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Quercus harmsiana</t>
+          <t>Quercus harmsiana Trel.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Quercus pulchella</t>
+          <t>Quercus pulchella Bonpl.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Quercus sideroxyla</t>
+          <t>Quercus sideroxyla Bonpl.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Quercus xalapensis</t>
+          <t>Quercus xalapensis Bonpl.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quercus repanda</t>
+          <t>Quercus repanda Bonpl.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Quercus spicata</t>
+          <t>Quercus spicata Bonpl.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Quercus subturbinella</t>
+          <t>Quercus subturbinella Trel.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Quercus confertifolia</t>
+          <t>Quercus confertifolia Bonpl.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Quercus douglasii</t>
+          <t>Quercus douglasii var. novomexicana A.DC.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Quercus convallata</t>
+          <t>Quercus convallata Trel.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Quercus moreliana</t>
+          <t>Quercus moreliana Trel.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Quercus canbyi</t>
+          <t>Quercus canbyi f. ascendens Trel.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Quercus exaristata</t>
+          <t>Quercus exaristata Trel.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Quercus hastata</t>
+          <t>Quercus hastata Liebm.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Quercus barbanthera</t>
+          <t>Quercus barbanthera var. calva Trel.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Quercus parviglans</t>
+          <t>Quercus parviglans f. tejadana Trel.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Quercus alamarensis</t>
+          <t>Quercus alamarensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Quercus potosina</t>
+          <t>Quercus potosina Trel.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Quercus haematophlebia</t>
+          <t>Quercus haematophlebia Trel.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Quercus monterreyensis</t>
+          <t>Quercus monterreyensis Trel. &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Quercus rugulosa</t>
+          <t>Quercus rugulosa M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Quercus flocculenta</t>
+          <t>Quercus flocculenta C.H.Mull.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Quercus acuminata</t>
+          <t>Quercus acuminata M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Quercus ariifolia</t>
+          <t>Quercus ariifolia Trel.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Quercus chiapasensis</t>
+          <t>Quercus chiapasensis f. flagellata Trel.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Quercus laurina</t>
+          <t>Quercus laurina Bonpl.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Quercus nitens</t>
+          <t>Quercus nitens var. major A.DC.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Quercus subspathulata</t>
+          <t>Quercus subspathulata Trel.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Quercus amissiloba</t>
+          <t>Quercus amissiloba Trel.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Quercus corrugata</t>
+          <t>Quercus corrugata var. granulifera Trel.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Quercus ×knoblochii</t>
+          <t>Quercus ×knoblochii C.H.Mull.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Quercus scytophylla</t>
+          <t>Quercus scytophylla Liebm.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Quercus excelsa</t>
+          <t>Quercus excelsa Liebm.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Quercus poculifer</t>
+          <t>Quercus poculifer Trel.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Quercus turbinella</t>
+          <t>Quercus turbinella subsp. ajoensis (C.H.Mull.) Felger &amp; C.H.Lowe</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Quercus gambelii</t>
+          <t>Quercus gambelii Nutt.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Quercus rhodophlebia</t>
+          <t>Quercus rhodophlebia Trel.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Quercus orizabae</t>
+          <t>Quercus orizabae Liebm.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Quercus potosina</t>
+          <t>Quercus potosina Trel.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Quercus grisea</t>
+          <t>Quercus grisea Liebm.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Quercus mexicana</t>
+          <t>Quercus mexicana f. lanulosa Trel.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Quercus conjugens</t>
+          <t>Quercus conjugens Trel.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Quercus acutangula</t>
+          <t>Quercus acutangula Trel.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Quercus calophylla</t>
+          <t>Quercus calophylla f. acuminata (M.Martens &amp; Galeotti) Seem. ex Trel.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Quercus crassipes</t>
+          <t>Quercus crassipes var. angustifolia Bonpl.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Quercus cupreata</t>
+          <t>Quercus cupreata Trel. &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Quercus mixtecana</t>
+          <t>Quercus mixtecana Trel.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Quercus jaralensis</t>
+          <t>Quercus jaralensis f. berlandieri Trel.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Quercus infralutea</t>
+          <t>Quercus infralutea Trel.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Quercus dumosa</t>
+          <t>Quercus dumosa var. turbinella (Greene) Jeps.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Quercus deserticola</t>
+          <t>Quercus deserticola Trel.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Quercus affinis</t>
+          <t>Quercus affinis Scheidw.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Quercus lecomteana</t>
+          <t>Quercus lecomteana Trel.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Quercus dumosa</t>
+          <t>Quercus dumosa f. linearis Trel.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Quercus nitens</t>
+          <t>Quercus nitens var. podocarpa A.DC.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Quercus bourgaei</t>
+          <t>Quercus bourgaei Oerst. ex Trel., 1924</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Quercus miquihuanensis</t>
+          <t>Quercus miquihuanensis Nixon &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Quercus reticulata</t>
+          <t>Quercus reticulata f. pungens C.H.Mull.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Quercus manzanillana</t>
+          <t>Quercus manzanillana Trel.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Quercus frutex</t>
+          <t>Quercus frutex var. uhdeana Trel.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Quercus serra</t>
+          <t>Quercus serra Liebm.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Quercus castanea</t>
+          <t>Quercus castanea Née</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Quercus endemica</t>
+          <t>Quercus endemica C.H.Mull.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Quercus apanecana</t>
+          <t>Quercus apanecana Trel.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Quercus hypoxantha</t>
+          <t>Quercus hypoxantha Trel.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Quercus alamo</t>
+          <t>Quercus alamo Benth.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Quercus crassifolia</t>
+          <t>Quercus crassifolia Bonpl.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Quercus hirtifolia</t>
+          <t>Quercus hirtifolia M.L.Vázquez, S.Valencia &amp; Nixon</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Quercus synthetica</t>
+          <t>Quercus synthetica Trel.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Quercus trichodonta</t>
+          <t>Quercus trichodonta Trel.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Quercus reticulata</t>
+          <t>Quercus reticulata Bonpl.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Quercus invaginata</t>
+          <t>Quercus invaginata Trel.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Quercus calophylla</t>
+          <t>Quercus calophylla f. willdenovii Trel., 1924</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Quercus productipes</t>
+          <t>Quercus productipes Trel.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Quercus clivicola</t>
+          <t>Quercus clivicola f. consanguinea C.H.Mull.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Quercus praineana</t>
+          <t>Quercus praineana Trel.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Quercus ocoteifolia</t>
+          <t>Quercus ocoteifolia f. podocarpa (A.DC.) Trel.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Quercus mexicana</t>
+          <t>Quercus mexicana Bonpl.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Quercus chiapasensis</t>
+          <t>Quercus chiapasensis f. longipes Trel.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Quercus liebmannii</t>
+          <t>Quercus liebmannii f. brevipes Trel.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Quercus transmontana</t>
+          <t>Quercus transmontana Trel.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Quercus ocoteifolia</t>
+          <t>Quercus ocoteifolia Liebm.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Quercus affinis</t>
+          <t>Quercus affinis f. subintegra (A.DC.) Trel.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Quercus tlapuxahuensis</t>
+          <t>Quercus tlapuxahuensis var. obconica Trel.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Quercus duraznillo</t>
+          <t>Quercus duraznillo Trel.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Quercus ceripes</t>
+          <t>Quercus ceripes Trel.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Quercus treleaseana</t>
+          <t>Quercus treleaseana A.Camus</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Quercus chrysophylla</t>
+          <t>Quercus chrysophylla Bonpl.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Quercus clivicola</t>
+          <t>Quercus clivicola f. elongata C.H.Mull.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Quercus chiapasensis</t>
+          <t>Quercus chiapasensis f. cuneifolia Trel.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Quercus ×hahnii</t>
+          <t>Quercus ×hahnii Trel.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Quercus tahuasalana</t>
+          <t>Quercus tahuasalana Trel.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Quercus glaucoides</t>
+          <t>Quercus glaucoides M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Quercus toumeyi</t>
+          <t>Quercus toumeyi Sarg.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Quercus dumosa</t>
+          <t>Quercus dumosa var. linearis (Trel.) A.Camus</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Quercus ajoensis</t>
+          <t>Quercus ajoensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Quercus apiophylla</t>
+          <t>Quercus apiophylla E.F.Warb.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Quercus crassivenosa</t>
+          <t>Quercus crassivenosa Trel.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Quercus chiquihuitillonis</t>
+          <t>Quercus chiquihuitillonis Trel.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Quercus confusa</t>
+          <t>Quercus confusa Wooton &amp; Standl.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Quercus paxtalensis</t>
+          <t>Quercus paxtalensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Quercus tarahumara</t>
+          <t>Quercus tarahumara Spellenb., J.D.Bacon &amp; Breedlove</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Quercus achoteana</t>
+          <t>Quercus achoteana var. sublanosa Trel., 1938</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Quercus jonesii</t>
+          <t>Quercus jonesii Trel.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Quercus cornelius</t>
+          <t>Quercus cornelius-mulleri Nixon &amp; K.P.Steele</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Quercus endlichiana</t>
+          <t>Quercus endlichiana f. serrata C.H.Mull.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Quercus praeco</t>
+          <t>Quercus praeco Trel.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Quercus brandegeei</t>
+          <t>Quercus brandegeei Goldman</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Quercus siltepecana</t>
+          <t>Quercus siltepecana Matuda</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Quercus laceyi</t>
+          <t>Quercus laceyi Small</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Quercus depressa</t>
+          <t>Quercus depressa Bonpl.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Quercus schultzei</t>
+          <t>Quercus schultzei Trel.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Quercus gentryi</t>
+          <t>Quercus gentryi C.H.Mull.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Quercus skinneri</t>
+          <t>Quercus skinneri Benth.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Quercus pringlei</t>
+          <t>Quercus pringlei f. dentata C.H.Mull.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Quercus carnerosana</t>
+          <t>Quercus carnerosana Trel.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Quercus revoluta</t>
+          <t>Quercus revoluta f. acuta C.H.Mull.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Quercus subtriloba</t>
+          <t>Quercus subtriloba Trel.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Quercus aculcingensis</t>
+          <t>Quercus aculcingensis Trel.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Quercus mexicana</t>
+          <t>Quercus mexicana f. bonplandii Trel.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Quercus barbinervis</t>
+          <t>Quercus barbinervis Benth.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Quercus oligodonta</t>
+          <t>Quercus oligodonta Seemen ex Loes.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Quercus mohriana</t>
+          <t>Quercus mohriana Buckley ex Rydb.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Quercus tristis</t>
+          <t>Quercus tristis Liebm.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Quercus bourgaei</t>
+          <t>Quercus bourgaei var. ilicifolia Trel.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Quercus guatimalensis</t>
+          <t>Quercus guatimalensis A.DC.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Quercus microcarpa</t>
+          <t>Quercus microcarpa Liebm.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Quercus segoviensis</t>
+          <t>Quercus segoviensis Liebm.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Quercus corrugata</t>
+          <t>Quercus corrugata Hook.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Quercus sartorii</t>
+          <t>Quercus sartorii f. magna Trel.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Quercus submollis</t>
+          <t>Quercus submollis Rydb.</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Quercus yoroensis</t>
+          <t>Quercus yoroensis var. aguanana Trel.</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Quercus imbricariifolia</t>
+          <t>Quercus imbricariifolia Trel.</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Quercus splendens</t>
+          <t>Quercus splendens Née</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Quercus endlichiana</t>
+          <t>Quercus endlichiana Trel.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Quercus xalapensis</t>
+          <t>Quercus xalapensis f. surculina Trel.</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Quercus coahuilensis</t>
+          <t>Quercus coahuilensis Nixon &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Quercus tenuiloba</t>
+          <t>Quercus tenuiloba C.H.Mull.</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Quercus acatenangensis</t>
+          <t>Quercus acatenangensis Trel.</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Quercus persiifolia</t>
+          <t>Quercus persiifolia var. achoteana Trel.</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Quercus totutlensis</t>
+          <t>Quercus totutlensis A.DC.</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Quercus laurina</t>
+          <t>Quercus laurina var. podocarpa (A.DC.) Wenz.</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Quercus marshii</t>
+          <t>Quercus marshii C.H.Mull.</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Quercus insignis</t>
+          <t>Quercus insignis M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Quercus pilgeriana</t>
+          <t>Quercus pilgeriana Seemen</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Quercus donnell</t>
+          <t>Quercus donnell-smithii Trel.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Quercus endlichiana</t>
+          <t>Quercus endlichiana f. minor C.H.Mull.</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Quercus salicifolia</t>
+          <t>Quercus salicifolia var. tlapuxahuensis (A.DC.) Wenz.</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Quercus hartmanii</t>
+          <t>Quercus hartmanii Trel.</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Quercus acutifolia</t>
+          <t>Quercus acutifolia var. bonplandii A.DC.</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Quercus serrulata</t>
+          <t>Quercus serrulata Trel.</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Quercus novomexicana</t>
+          <t>Quercus novomexicana var. nitescens (Rydb.) A.Camus</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Quercus aurantiaca</t>
+          <t>Quercus aurantiaca Trel.</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Quercus dumosa</t>
+          <t>Quercus dumosa f. microcarpa Trel.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Quercus sacame</t>
+          <t>Quercus sacame Trel.</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Quercus linguifolia</t>
+          <t>Quercus linguifolia Liebm.</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Quercus bumelioides</t>
+          <t>Quercus bumelioides Liebm.</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Quercus eduardi</t>
+          <t>Quercus eduardi Trel.</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Quercus fusiformis</t>
+          <t>Quercus fusiformis Small</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Quercus botryocarpa</t>
+          <t>Quercus botryocarpa Trel.</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Quercus chiapasensis</t>
+          <t>Quercus chiapasensis f. subcuneata Trel.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Quercus zempoaltepecana</t>
+          <t>Quercus zempoaltepecana Trel.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Quercus flocculenta</t>
+          <t>Quercus flocculenta var. typica A.Camus</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Quercus guayabalana</t>
+          <t>Quercus guayabalana Trel. ex Standl., 1930</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Quercus runcinatifolia</t>
+          <t>Quercus runcinatifolia Trel. &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Quercus fulva</t>
+          <t>Quercus fulva Liebm.</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Quercus huitamalcana</t>
+          <t>Quercus huitamalcana Trel.</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Quercus circinata</t>
+          <t>Quercus circinata Née</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Quercus chiapasensis</t>
+          <t>Quercus chiapasensis Trel.</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Quercus brachystachys</t>
+          <t>Quercus brachystachys f. caerulea Trel.</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Quercus hintoniorum</t>
+          <t>Quercus hintoniorum Nixon &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Quercus leiophylla</t>
+          <t>Quercus leiophylla f. subintegra Trel.</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Quercus texquitzinae</t>
+          <t>Quercus texquitzinae Trel.</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Quercus palmeri</t>
+          <t>Quercus palmeri (Engelm.) Engelm.</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Quercus commutata</t>
+          <t>Quercus commutata Liebm.</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Quercus trinitatis</t>
+          <t>Quercus trinitatis Trel.</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Quercus resinosa</t>
+          <t>Quercus resinosa Liebm.</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Quercus yousei</t>
+          <t>Quercus yousei Trel.</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Quercus ocoteifolia</t>
+          <t>Quercus ocoteifolia f. confusa Trel.</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Quercus peninsularis</t>
+          <t>Quercus peninsularis Trel.</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Quercus durangensis</t>
+          <t>Quercus durangensis Trel.</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Quercus elliptica</t>
+          <t>Quercus elliptica Née</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Quercus rubramenta</t>
+          <t>Quercus rubramenta Trel.</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Quercus conspersa</t>
+          <t>Quercus conspersa f. ovatifolia Trel.</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Quercus langlassei</t>
+          <t>Quercus langlassei Trel.</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Quercus albocincta</t>
+          <t>Quercus albocincta Trel.</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Quercus laurina</t>
+          <t>Quercus laurina var. barbinervis (Benth.) Wenz.</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Quercus candicans</t>
+          <t>Quercus candicans f. alligata Trel.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Quercus chiapasensis</t>
+          <t>Quercus chiapasensis Trel.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Quercus hartwegii</t>
+          <t>Quercus hartwegii f. glabrata Trel.</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Quercus ×sagata</t>
+          <t>Quercus ×sagata E.F.Warb.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Quercus ×esperanzae</t>
+          <t>Quercus ×esperanzae Trel.</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Quercus fulva</t>
+          <t>Quercus fulva Liebm.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Quercus aristata</t>
+          <t>Quercus aristata Hook. &amp; Arn.</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Quercus graciliramis</t>
+          <t>Quercus graciliramis C.H.Mull.</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Quercus vellifera</t>
+          <t>Quercus vellifera Trel.</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Quercus omissa</t>
+          <t>Quercus omissa A.DC.</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Quercus cortesii</t>
+          <t>Quercus cortesii Liebm.</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Quercus dumosa</t>
+          <t>Quercus dumosa Nutt.</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Quercus simillima</t>
+          <t>Quercus simillima Trel.</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Quercus sebifera</t>
+          <t>Quercus sebifera f. comitanensis Trel.</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Quercus malifolia</t>
+          <t>Quercus malifolia Trel.</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Quercus hemipteroides</t>
+          <t>Quercus hemipteroides C.H.Mull.</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Quercus nitidissima</t>
+          <t>Quercus nitidissima Trel.</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Quercus mexicana</t>
+          <t>Quercus mexicana var. glabrata Liebm. ex Seem.</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Quercus erubescens</t>
+          <t>Quercus erubescens Trel.</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Quercus esesmilensis</t>
+          <t>Quercus esesmilensis J.M.Tucker &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Quercus diversicolor</t>
+          <t>Quercus diversicolor Trel.</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Quercus splendens</t>
+          <t>Quercus splendens var. pallidior A.DC.</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Quercus obtusanthera</t>
+          <t>Quercus obtusanthera Trel.</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Quercus arizonica</t>
+          <t>Quercus arizonica Sarg.</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Quercus idonea</t>
+          <t>Quercus idonea Goldman</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Quercus intermedia</t>
+          <t>Quercus intermedia M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Quercus aerea</t>
+          <t>Quercus aerea Trel.</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Quercus obtusata</t>
+          <t>Quercus obtusata Bonpl.</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Quercus uxoris</t>
+          <t>Quercus uxoris McVaugh</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Quercus glaucescens</t>
+          <t>Quercus glaucescens Bonpl.</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Quercus canbyi</t>
+          <t>Quercus canbyi Trel.</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Quercus skutchii</t>
+          <t>Quercus skutchii Trel.</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Quercus striatula</t>
+          <t>Quercus striatula Trel.</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Quercus aequivenulosa</t>
+          <t>Quercus aequivenulosa Trel.</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Quercus chiapasensis</t>
+          <t>Quercus chiapasensis f. falcilobata Trel.</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Quercus novomexicana</t>
+          <t>Quercus novomexicana (A.DC.) Rydb.</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Quercus reticulata</t>
+          <t>Quercus reticulata var. greggii A.DC.</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Quercus sinuata</t>
+          <t>Quercus sinuata Walter</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Quercus grahamii</t>
+          <t>Quercus grahamii f. brevipes Trel.</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Quercus glaucophylla</t>
+          <t>Quercus glaucophylla var. subrotundifolia C.H.Mull.</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Quercus glaucophylla</t>
+          <t>Quercus glaucophylla f. lobata C.H.Mull.</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Quercus karwinskii</t>
+          <t>Quercus karwinskii Trel.</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Quercus circummontana</t>
+          <t>Quercus circummontana Trel.</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Quercus cuajimalpana</t>
+          <t>Quercus cuajimalpana Trel.</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Quercus cyclobalanoides</t>
+          <t>Quercus cyclobalanoides Trel.</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Quercus crassipes</t>
+          <t>Quercus crassipes Bonpl.</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Quercus arachnoidea</t>
+          <t>Quercus arachnoidea Trel.</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Quercus pallidifolia</t>
+          <t>Quercus pallidifolia C.H.Mull.</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Quercus corrugata</t>
+          <t>Quercus corrugata var. ipalensis Trel.</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Quercus galeanensis</t>
+          <t>Quercus galeanensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Quercus coccinata</t>
+          <t>Quercus coccinata Trel.</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Quercus sororia</t>
+          <t>Quercus sororia Liebm.</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Quercus orbiculata</t>
+          <t>Quercus orbiculata Trel.</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Quercus agrifolia</t>
+          <t>Quercus agrifolia Née</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Quercus macvaughii</t>
+          <t>Quercus macvaughii Spellenb.</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Quercus transmontana</t>
+          <t>Quercus transmontana f. lata (Trel.) A.Camus</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Quercus caeruleocarpa</t>
+          <t>Quercus caeruleocarpa Trel.</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Quercus rhodophlebia</t>
+          <t>Quercus rhodophlebia f. inclusa Trel.</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Quercus flocculenta</t>
+          <t>Quercus flocculenta f. incisa C.H.Mull.</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Quercus grahamii</t>
+          <t>Quercus grahamii var. nelsonii Trel.</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Quercus revoluta</t>
+          <t>Quercus revoluta Trel.</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Quercus tepoxuchilensis</t>
+          <t>Quercus tepoxuchilensis f. perplexans Trel.</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Quercus pilarius</t>
+          <t>Quercus pilarius Trel.</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Quercus obovalifolia</t>
+          <t>Quercus obovalifolia E.Fourn. ex Trel.</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Quercus lancifolia</t>
+          <t>Quercus lancifolia f. pilosiuscula Wenz.</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Quercus magnoliifolia</t>
+          <t>Quercus magnoliifolia Née</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Quercus sentenelensis</t>
+          <t>Quercus sentenelensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Quercus cerifera</t>
+          <t>Quercus cerifera Trel.</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Quercus dumosa</t>
+          <t>Quercus dumosa f. insularis Trel.</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Quercus rhodophlebia</t>
+          <t>Quercus rhodophlebia Trel.</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Quercus roseovenulosa</t>
+          <t>Quercus roseovenulosa Trel.</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Quercus microphylla</t>
+          <t>Quercus microphylla Née</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Quercus jaliscensis</t>
+          <t>Quercus jaliscensis Trel.</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Quercus affinis</t>
+          <t>Quercus affinis Scheidw.</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Quercus floccosa</t>
+          <t>Quercus floccosa Liebm.</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Quercus mollis</t>
+          <t>Quercus mollis M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Quercus dumosa</t>
+          <t>Quercus dumosa f. diversifolia Trel.</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Quercus schippii</t>
+          <t>Quercus schippii Standl.</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Quercus clivicola</t>
+          <t>Quercus clivicola f. crenifolia Trel. &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Quercus seleri</t>
+          <t>Quercus seleri Trel.</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Quercus frutex</t>
+          <t>Quercus frutex Trel.</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Quercus axillaris</t>
+          <t>Quercus axillaris E.Fourn. ex Trel.</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Quercus clivicola</t>
+          <t>Quercus clivicola Trel. &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Quercus tridens</t>
+          <t>Quercus tridens Bonpl.</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Quercus purpusii</t>
+          <t>Quercus purpusii Trel.</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Quercus rhodophlebia</t>
+          <t>Quercus rhodophlebia f. apus Trel.</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Quercus nitens</t>
+          <t>Quercus nitens var. ocoteifolia (Liebm.) A.DC.</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Quercus barbeyana</t>
+          <t>Quercus barbeyana Trel.</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Quercus xalapensis</t>
+          <t>Quercus xalapensis f. jalapae Trel.</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Quercus subcrispata</t>
+          <t>Quercus subcrispata Trel.</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Quercus peduncularis</t>
+          <t>Quercus peduncularis Née</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Quercus diversifolia</t>
+          <t>Quercus diversifolia Née</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Quercus radiata</t>
+          <t>Quercus radiata Trel.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Quercus malinaltepecana</t>
+          <t>Quercus malinaltepecana Trel.</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Quercus parviglans</t>
+          <t>Quercus parviglans f. polycarpa Trel.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Quercus ×pauciloba</t>
+          <t>Quercus ×pauciloba Rydb.</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Quercus sideroxyla</t>
+          <t>Quercus sideroxyla f. aquifolia Trel.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Quercus candicans</t>
+          <t>Quercus candicans f. incurva Trel.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Quercus conzattii</t>
+          <t>Quercus conzattii Trel.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Quercus depressipes</t>
+          <t>Quercus depressipes Trel.</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Quercus hinckleyi</t>
+          <t>Quercus hinckleyi C.H.Mull.</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Quercus planipocula</t>
+          <t>Quercus planipocula Trel.</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Quercus leiophylla</t>
+          <t>Quercus leiophylla A.DC.</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Quercus macrophylla</t>
+          <t>Quercus macrophylla Née</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Quercus oajacana</t>
+          <t>Quercus oajacana Liebm.</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Quercus crenatifolia</t>
+          <t>Quercus crenatifolia Trel.</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Quercus callosa</t>
+          <t>Quercus callosa M.Martens ex A.DC.</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Quercus cedrosensis</t>
+          <t>Quercus cedrosensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Quercus epileuca</t>
+          <t>Quercus epileuca Trel.</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Quercus flavida</t>
+          <t>Quercus flavida Liebm.</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Quercus bocoynensis</t>
+          <t>Quercus bocoynensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Quercus innuncupata</t>
+          <t>Quercus innuncupata Trel.</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Quercus parviglans</t>
+          <t>Quercus parviglans Trel.</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Quercus pilicaulis</t>
+          <t>Quercus pilicaulis f. elongata C.H.Mull.</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Quercus bolanyosensis</t>
+          <t>Quercus bolanyosensis Trel.</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Quercus pilicaulis</t>
+          <t>Quercus pilicaulis f. exserta C.H.Mull.</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Quercus crispipilis</t>
+          <t>Quercus crispipilis Trel.</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Quercus candolleana</t>
+          <t>Quercus candolleana Trel.</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Quercus lutescens</t>
+          <t>Quercus lutescens M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Quercus carmenensis</t>
+          <t>Quercus carmenensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Quercus calophylla</t>
+          <t>Quercus calophylla f. intermedia (M.Martens &amp; Galeotti) Seem. ex Trel.</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Quercus cupreata</t>
+          <t>Quercus cupreata f. brachystachys C.H.Mull.</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Quercus grandis</t>
+          <t>Quercus grandis Liebm.</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Quercus grandis</t>
+          <t>Quercus grandis var. tenuipes Trel.</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Quercus atrescentirhachis</t>
+          <t>Quercus atrescentirhachis Trel.</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Quercus calophylla</t>
+          <t>Quercus calophylla Schltdl. &amp; Cham.</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Quercus amphioxys</t>
+          <t>Quercus amphioxys Trel.</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Quercus panduriformis</t>
+          <t>Quercus panduriformis f. rubrinervis Trel.</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Quercus sapotifolia</t>
+          <t>Quercus sapotifolia Liebm.</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Quercus lutea</t>
+          <t>Quercus lutea Née</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Quercus incarnata</t>
+          <t>Quercus incarnata Trel.</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6378,7 +6378,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Quercus leptophylla</t>
+          <t>Quercus leptophylla Rydb.</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Quercus supranitida</t>
+          <t>Quercus supranitida C.H.Mull.</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Quercus caudicans</t>
+          <t>Quercus caudicans Née</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Quercus impressa</t>
+          <t>Quercus impressa Trel.</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Quercus devia</t>
+          <t>Quercus devia Goldman</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Quercus oocarpa</t>
+          <t>Quercus oocarpa Liebm.</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Quercus lanigera</t>
+          <t>Quercus lanigera M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Quercus warszewiczii</t>
+          <t>Quercus warszewiczii Liebm.</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Quercus reevesii</t>
+          <t>Quercus reevesii Trel.</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Quercus tomentella</t>
+          <t>Quercus tomentella Engelm.</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Quercus glabrescens</t>
+          <t>Quercus glabrescens var. integrifolia Liebm. ex A.DC.</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Quercus greggii</t>
+          <t>Quercus greggii (A.DC.) Trel.</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Quercus calophylla</t>
+          <t>Quercus calophylla f. flavida (Liebm.) Trel.</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Quercus intricata</t>
+          <t>Quercus intricata f. erratica Trel.</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Quercus potosina</t>
+          <t>Quercus potosina f. exilis Trel.</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Quercus invaginata</t>
+          <t>Quercus invaginata f. purpusiana Trel.</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Quercus durandii</t>
+          <t>Quercus durandii Buckley</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Quercus cordata</t>
+          <t>Quercus cordata M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Quercus ambivenulosa</t>
+          <t>Quercus ambivenulosa Trel.</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Quercus baldoquinae</t>
+          <t>Quercus baldoquinae Trel.</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Quercus martensiana</t>
+          <t>Quercus martensiana Trel.</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Quercus oblongifolia</t>
+          <t>Quercus oblongifolia var. pallidinervis Trel.</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Quercus santaclarensis</t>
+          <t>Quercus santaclarensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Quercus opaca</t>
+          <t>Quercus opaca Trel.</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Quercus arizonica</t>
+          <t>Quercus arizonica var. wootonii Trel.</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Quercus canbyi</t>
+          <t>Quercus canbyi f. berlandieri Trel.</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Quercus barbanthera</t>
+          <t>Quercus barbanthera Trel.</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Quercus pablillensis</t>
+          <t>Quercus pablillensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Quercus emoryi</t>
+          <t>Quercus emoryi Torr.</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Quercus oleoides</t>
+          <t>Quercus oleoides var. australis Trel.</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Quercus corrugata</t>
+          <t>Quercus corrugata var. microcarpa Wenz.</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Quercus pungens</t>
+          <t>Quercus pungens Liebm.</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Quercus boqueronae</t>
+          <t>Quercus boqueronae Trel.</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Quercus subavenia</t>
+          <t>Quercus subavenia Trel.</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Quercus atriglans</t>
+          <t>Quercus atriglans E.F.Warb.</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Quercus sipuraca</t>
+          <t>Quercus sipuraca Trel.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Quercus galeottii</t>
+          <t>Quercus galeottii M.Martens</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Quercus reticulata</t>
+          <t>Quercus reticulata var. squarrosa Trel.</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Quercus albifolia</t>
+          <t>Quercus albifolia C.H.Mull.</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Quercus longifolia</t>
+          <t>Quercus longifolia Liebm.</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Quercus panduriformis</t>
+          <t>Quercus panduriformis Trel.</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Quercus intricata</t>
+          <t>Quercus intricata Trel.</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Quercus martinezii</t>
+          <t>Quercus martinezii C.H.Mull.</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Quercus canbyi</t>
+          <t>Quercus canbyi f. pedunculata C.H.Mull.</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Quercus canbyi</t>
+          <t>Quercus canbyi f. attenuata C.H.Mull.</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Quercus nectandrifolia</t>
+          <t>Quercus nectandrifolia Liebm.</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Quercus crispifolia</t>
+          <t>Quercus crispifolia Trel.</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Quercus calophylla</t>
+          <t>Quercus calophylla Schltdl. &amp; Cham.</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Quercus calophylla</t>
+          <t>Quercus calophylla f. alamo (Benth.) Trel.</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Quercus cordifolia</t>
+          <t>Quercus cordifolia Trel.</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Quercus chimaltenangensis</t>
+          <t>Quercus chimaltenangensis f. gemmata C.H.Mull.</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Quercus rugosa</t>
+          <t>Quercus rugosa Née</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Quercus glaucophylla</t>
+          <t>Quercus glaucophylla f. longifolia C.H.Mull.</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Quercus edwardsiae</t>
+          <t>Quercus edwardsiae C.H.Mull.</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Quercus centralis</t>
+          <t>Quercus centralis Trel.</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Quercus pubinervis</t>
+          <t>Quercus pubinervis M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Quercus wesmaelii</t>
+          <t>Quercus wesmaelii Trel.</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Quercus tomentocaulis</t>
+          <t>Quercus tomentocaulis C.H.Mull.</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Quercus persiifolia</t>
+          <t>Quercus persiifolia f. microcarpa Trel.</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Quercus durifolia</t>
+          <t>Quercus durifolia Seemen ex Loes.</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Quercus hypoleuca</t>
+          <t>Quercus hypoleuca Engelm.</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Quercus chrysolepis</t>
+          <t>Quercus chrysolepis Liebm.</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Quercus porphyrogenita</t>
+          <t>Quercus porphyrogenita Trel.</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Quercus nitens</t>
+          <t>Quercus nitens M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -7560,7 +7560,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Quercus sillae</t>
+          <t>Quercus sillae Trel.</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Quercus campanariensis</t>
+          <t>Quercus campanariensis Trel.</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Quercus hartwegii</t>
+          <t>Quercus hartwegii Benth.</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Quercus laeta</t>
+          <t>Quercus laeta Liebm.</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Quercus obscura</t>
+          <t>Quercus obscura var. perpusilla Trel.</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Quercus lancifolia</t>
+          <t>Quercus lancifolia Schltdl. &amp; Cham.</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Quercus ignaciensis</t>
+          <t>Quercus ignaciensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Quercus acutifolia</t>
+          <t>Quercus acutifolia Née</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Quercus pinnativenulosa</t>
+          <t>Quercus pinnativenulosa C.H.Mull.</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Quercus dolichopus</t>
+          <t>Quercus dolichopus E.F.Warb.</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Quercus felipensis</t>
+          <t>Quercus felipensis Trel.</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Quercus jaralensis</t>
+          <t>Quercus jaralensis Trel.</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Quercus pilicaulis</t>
+          <t>Quercus pilicaulis f. armata Trel.</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Quercus juergensenii</t>
+          <t>Quercus juergensenii Liebm.</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Quercus oleoides</t>
+          <t>Quercus oleoides Schltdl. &amp; Cham.</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Quercus schenckiana</t>
+          <t>Quercus schenckiana Trel.</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Quercus errans</t>
+          <t>Quercus errans Trel.</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Quercus porriginosa</t>
+          <t>Quercus porriginosa Trel.</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Quercus deliquescens</t>
+          <t>Quercus deliquescens C.H.Mull.</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Quercus mexicana</t>
+          <t>Quercus mexicana f. perfertilis Trel.</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Quercus coccolobifolia</t>
+          <t>Quercus coccolobifolia Trel.</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Quercus oblongifolia</t>
+          <t>Quercus oblongifolia Torr.</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Quercus errans</t>
+          <t>Quercus errans f. graciliramis C.H.Mull.</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Quercus cinnamomea</t>
+          <t>Quercus cinnamomea Trel.</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Quercus clivicola</t>
+          <t>Quercus clivicola f. dentata Trel. &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Quercus acapulcensis</t>
+          <t>Quercus acapulcensis Trel.</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Quercus turbinella</t>
+          <t>Quercus turbinella Greene</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Quercus strombocarpa</t>
+          <t>Quercus strombocarpa Liebm.</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Quercus rubescens</t>
+          <t>Quercus rubescens Trel.</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Quercus cancellata</t>
+          <t>Quercus cancellata Trel.</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Quercus acherdophylla</t>
+          <t>Quercus acherdophylla Trel.</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Quercus ×fournieri</t>
+          <t>Quercus ×fournieri Trel.</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Quercus tamiapensis</t>
+          <t>Quercus tamiapensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Quercus conspersa</t>
+          <t>Quercus conspersa Benth.</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Quercus verde</t>
+          <t>Quercus verde C.H.Mull.</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Quercus retusa</t>
+          <t>Quercus retusa Liebm.</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Quercus canbyi</t>
+          <t>Quercus canbyi f. subovatifolia C.H.Mull.</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Quercus tardifolia</t>
+          <t>Quercus tardifolia C.H.Mull.</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Quercus tonaguiae</t>
+          <t>Quercus tonaguiae Trel.</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Quercus spinulosa</t>
+          <t>Quercus spinulosa M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Quercus reticulata</t>
+          <t>Quercus reticulata f. longa Trel.</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Quercus elliptica</t>
+          <t>Quercus elliptica var. microcarpa A.DC.</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Quercus vallicola</t>
+          <t>Quercus vallicola Trel.</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Quercus pilicaulis</t>
+          <t>Quercus pilicaulis Trel.</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Quercus glabrescens</t>
+          <t>Quercus glabrescens Benth.</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Quercus vicentensis</t>
+          <t>Quercus vicentensis Trel.</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Quercus conspersa</t>
+          <t>Quercus conspersa f. caudata Trel.</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Quercus canbyi</t>
+          <t>Quercus canbyi f. setacea C.H.Mull.</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Quercus lanceolata</t>
+          <t>Quercus lanceolata Bonpl.</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Quercus cupreata</t>
+          <t>Quercus cupreata f. serrata Trel. &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Quercus viminea</t>
+          <t>Quercus viminea Trel.</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Quercus pilicaulis</t>
+          <t>Quercus pilicaulis f. concava C.H.Mull.</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Quercus macdougallii</t>
+          <t>Quercus macdougallii Martínez</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -8574,7 +8574,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Quercus incrassata</t>
+          <t>Quercus incrassata Trel.</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Quercus derrumbaderoensis</t>
+          <t>Quercus derrumbaderoensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Quercus shumardii</t>
+          <t>Quercus shumardii Buckley</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Quercus pinalensis</t>
+          <t>Quercus pinalensis Trel.</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Quercus chicamolensis</t>
+          <t>Quercus chicamolensis Trel.</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Quercus affinis</t>
+          <t>Quercus affinis f. commutata (Liebm.) Trel.</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Quercus perpallida</t>
+          <t>Quercus perpallida Trel.</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Quercus nitida</t>
+          <t>Quercus nitida M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Quercus standleyi</t>
+          <t>Quercus standleyi Trel.</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Quercus miguelitensis</t>
+          <t>Quercus miguelitensis Trel.</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Quercus bipedalis</t>
+          <t>Quercus bipedalis Trel.</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Quercus tenuiloba</t>
+          <t>Quercus tenuiloba f. hirsuta C.H.Mull.</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8790,7 +8790,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Quercus sartorii</t>
+          <t>Quercus sartorii Liebm.</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Quercus rekonis</t>
+          <t>Quercus rekonis Trel.</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Quercus runcinatifolia</t>
+          <t>Quercus runcinatifolia f. lata Trel. &amp; C.H.Mull., 1936</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Quercus peradifolia</t>
+          <t>Quercus peradifolia E.F.Warb.</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8862,7 +8862,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Quercus radlkoferiana</t>
+          <t>Quercus radlkoferiana Trel.</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Quercus pallescens</t>
+          <t>Quercus pallescens Trel.</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8898,7 +8898,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Quercus rysophylla</t>
+          <t>Quercus rysophylla Weath.</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Quercus chiapasensis</t>
+          <t>Quercus chiapasensis f. petiolata Trel.</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Quercus yoroensis</t>
+          <t>Quercus yoroensis Trel.</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Quercus major</t>
+          <t>Quercus major (A.DC.) Trel.</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Quercus alvarezensis</t>
+          <t>Quercus alvarezensis Trel.</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Quercus rhodophlebia</t>
+          <t>Quercus rhodophlebia f. applanata Trel.</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Quercus sanchezcolinii</t>
+          <t>Quercus sanchezcolinii Martínez</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -9024,7 +9024,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Quercus siguatepequeana</t>
+          <t>Quercus siguatepequeana Trel.</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -9042,7 +9042,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Quercus hintonii</t>
+          <t>Quercus hintonii E.F.Warb.</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Quercus reticulata</t>
+          <t>Quercus reticulata f. dugesii Trel.</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Quercus verrucosirama</t>
+          <t>Quercus verrucosirama Trel.</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Quercus wilcoxii</t>
+          <t>Quercus wilcoxii Rydb.</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Quercus chihuahuensis</t>
+          <t>Quercus chihuahuensis Trel.</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Quercus salicifolia</t>
+          <t>Quercus salicifolia Née</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Quercus striatula</t>
+          <t>Quercus striatula f. otinapensis Trel.</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Quercus spathulistipula</t>
+          <t>Quercus spathulistipula Trel.</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Quercus pungens</t>
+          <t>Quercus pungens var. vaseyana (Buckley) C.H.Mull.</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Quercus persiifolia</t>
+          <t>Quercus persiifolia Liebm.</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Quercus dumosa</t>
+          <t>Quercus dumosa Nutt.</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Quercus hondurensis</t>
+          <t>Quercus hondurensis Trel.</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Quercus colimae</t>
+          <t>Quercus colimae Trel.</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Quercus novomexicana</t>
+          <t>Quercus novomexicana var. andrewsii Trel.</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Quercus vexans</t>
+          <t>Quercus vexans Trel.</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Quercus canbyi</t>
+          <t>Quercus canbyi f. concolor Trel. &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Quercus obscurirhachis</t>
+          <t>Quercus obscurirhachis Trel.</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Quercus glaucophylla</t>
+          <t>Quercus glaucophylla Seemen, 1900</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Quercus reticulata</t>
+          <t>Quercus reticulata var. crassifolia Oerst.</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Quercus texcocana</t>
+          <t>Quercus texcocana Trel.</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -9402,7 +9402,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Quercus nitescens</t>
+          <t>Quercus nitescens Rydb.</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9420,7 +9420,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Quercus canbyi</t>
+          <t>Quercus canbyi f. karwinskii (Trel.) C.H.Mull.</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -9438,7 +9438,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Quercus albifolia</t>
+          <t>Quercus albifolia C.H.Mull.</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Quercus uhdeana</t>
+          <t>Quercus uhdeana Trel.</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Quercus laurina</t>
+          <t>Quercus laurina var. ocoteifolia (Liebm.) Wenz.</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Quercus sebifera</t>
+          <t>Quercus sebifera Trel.</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Quercus obtusifolia</t>
+          <t>Quercus obtusifolia Rydb.</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Quercus urbani</t>
+          <t>Quercus urbani Trel.</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Quercus tepoxuchilensis</t>
+          <t>Quercus tepoxuchilensis Trel.</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Quercus germana</t>
+          <t>Quercus germana Schltdl. &amp; Cham.</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9582,7 +9582,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Quercus chinantlensis</t>
+          <t>Quercus chinantlensis Liebm.</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Quercus gemmata</t>
+          <t>Quercus gemmata Trel.</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Quercus polymorpha</t>
+          <t>Quercus polymorpha Schltdl. &amp; Cham.</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Quercus prinopsis</t>
+          <t>Quercus prinopsis Trel.</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9654,7 +9654,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Quercus vreelandii</t>
+          <t>Quercus vreelandii Rydb.</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Quercus candicans</t>
+          <t>Quercus candicans f. michoacana Trel.</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Quercus benthamii</t>
+          <t>Quercus benthamii A.DC.</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Quercus toxicodendrifolia</t>
+          <t>Quercus toxicodendrifolia Trel.</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Quercus grahamii</t>
+          <t>Quercus grahamii var. coyulana Trel.</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Quercus decipiens</t>
+          <t>Quercus decipiens M.Martens &amp; Galeotti</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -9762,7 +9762,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Quercus correpta</t>
+          <t>Quercus correpta Trel.</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Quercus L</t>
+          <t>Quercus L.</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Quercus eastwoodiae</t>
+          <t>Quercus eastwoodiae Rydb.</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Quercus duratifolia</t>
+          <t>Quercus duratifolia C.H.Mull.</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Quercus conglomerata</t>
+          <t>Quercus conglomerata Trel.</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Quercus tlapuxahuensis</t>
+          <t>Quercus tlapuxahuensis A.DC.</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Quercus xalapensis</t>
+          <t>Quercus xalapensis var. longifolia (A.DC.) Wenz.</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Quercus polymorpha</t>
+          <t>Quercus polymorpha f. angustifolia C.H.Mull.</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Quercus laurina</t>
+          <t>Quercus laurina var. major (A.DC.) Wenz.</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Quercus achoteana</t>
+          <t>Quercus achoteana Trel.</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Quercus filiformis</t>
+          <t>Quercus filiformis C.H.Mull.</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Quercus comasaguana</t>
+          <t>Quercus comasaguana Trel.</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Quercus flocculenta</t>
+          <t>Quercus flocculenta f. oblongifolia C.H.Mull.</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Quercus germana</t>
+          <t>Quercus germana var. lemmonii Trel.</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Quercus alveolata</t>
+          <t>Quercus alveolata Trel.</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Quercus platyphylla</t>
+          <t>Quercus platyphylla E.F.Warb.</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Quercus sideroxyla</t>
+          <t>Quercus sideroxyla f. ciliifera Trel.</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Quercus chuhuichupensis</t>
+          <t>Quercus chuhuichupensis C.H.Mull.</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Quercus pringlei</t>
+          <t>Quercus pringlei Seemen, 1900</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Quercus comayaguana</t>
+          <t>Quercus comayaguana Trel.</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Quercus pandurata</t>
+          <t>Quercus pandurata Bonpl.</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Quercus tepicana</t>
+          <t>Quercus tepicana Trel.</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Quercus undata</t>
+          <t>Quercus undata Trel.</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Quercus nitens</t>
+          <t>Quercus nitens var. subintegra A.DC.</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Quercus liebmannii</t>
+          <t>Quercus liebmannii Oerst. ex Trel.</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Quercus vaseyana</t>
+          <t>Quercus vaseyana Buckley</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Quercus nigrirhachis</t>
+          <t>Quercus nigrirhachis Trel.</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Quercus saltillensis</t>
+          <t>Quercus saltillensis Trel.</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Quercus cuneifolia</t>
+          <t>Quercus cuneifolia Liebm.</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Quercus microlepis</t>
+          <t>Quercus microlepis Trel. &amp; C.H.Müll.</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Quercus balsequillana</t>
+          <t>Quercus balsequillana Trel.</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Quercus nixoniana</t>
+          <t>Quercus nixoniana S.Valencia &amp; Lozada-Pérez</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Quercus furfuracea</t>
+          <t>Quercus furfuracea Liebm.</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
